--- a/params.xlsx
+++ b/params.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\ppLFERMUM\ppLFER_MUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6C50F-E2AE-4250-80C4-D8520DAD647D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8DC9C-AC36-4AD0-BBB8-C182D586ED50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Parameter</t>
   </si>
@@ -128,6 +128,69 @@
   </si>
   <si>
     <t>VFOCFilm</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Hw</t>
+  </si>
+  <si>
+    <t>Cq</t>
+  </si>
+  <si>
+    <t>Bw</t>
+  </si>
+  <si>
+    <t>Sfc</t>
+  </si>
+  <si>
+    <t>Sh</t>
+  </si>
+  <si>
+    <t>Ss</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>Wilting point</t>
+  </si>
+  <si>
+    <t>Field Capacity</t>
+  </si>
+  <si>
+    <t>Plant stress</t>
+  </si>
+  <si>
+    <t>Hygroscopic point</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>hpipe</t>
   </si>
 </sst>
 </file>
@@ -970,23 +1033,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1060,7 @@
         <v>17.524999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1068,7 @@
         <v>1.0122282608695653E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1076,7 @@
         <v>3.6627415458937205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1084,7 @@
         <v>1.2211422472836464</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1092,7 @@
         <v>69.608333333333306</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1100,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1116,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1124,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1132,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1156,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1164,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1172,7 @@
         <v>1.0122282608695654E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1180,7 @@
         <v>5.0611413043478266E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1188,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1196,7 @@
         <v>4.6000000000000002E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1204,7 @@
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1212,7 @@
         <v>3.4E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1220,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1228,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1236,7 @@
         <v>3.58E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1244,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1252,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1260,7 @@
         <v>8.05E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1268,7 @@
         <v>2.31E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1210,7 +1276,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1284,7 @@
         <v>37.451759321620528</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1234,7 +1300,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1308,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1250,12 +1316,242 @@
         <v>1515000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2.2999999999996135E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.14199999999999591</v>
+      </c>
+      <c r="E39">
+        <v>0.28399999999999181</v>
+      </c>
+      <c r="F39">
+        <v>0.42499999999998295</v>
+      </c>
+      <c r="G39">
+        <v>0.56700000000000728</v>
+      </c>
+      <c r="H39">
+        <v>0.70900000000000318</v>
+      </c>
+      <c r="I39">
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="J39">
+        <v>0.99199999999999022</v>
+      </c>
+      <c r="K39">
+        <v>1.1339999999999861</v>
+      </c>
+      <c r="L39">
+        <v>1.275999999999982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>8.3103522302654068E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.0627710716991954</v>
+      </c>
+      <c r="E40">
+        <v>4.6573075019791403</v>
+      </c>
+      <c r="F40">
+        <v>10.415508255468254</v>
+      </c>
+      <c r="G40">
+        <v>17.585093253721471</v>
+      </c>
+      <c r="H40">
+        <v>20.976453086323104</v>
+      </c>
+      <c r="I40">
+        <v>22.19616367391502</v>
+      </c>
+      <c r="J40">
+        <v>22.434772532408257</v>
+      </c>
+      <c r="K40">
+        <v>22.526027131868148</v>
+      </c>
+      <c r="L40">
+        <v>22.538787131868148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.14650999999997538</v>
+      </c>
+      <c r="D41">
+        <v>1.7791899999999723</v>
+      </c>
+      <c r="E41">
+        <v>6.2926599999998425</v>
+      </c>
+      <c r="F41">
+        <v>13.829814999999368</v>
+      </c>
+      <c r="G41">
+        <v>20.229755000000466</v>
+      </c>
+      <c r="H41">
+        <v>22.741735000000396</v>
+      </c>
+      <c r="I41">
+        <v>23.467180000000351</v>
+      </c>
+      <c r="J41">
+        <v>23.593560000000348</v>
+      </c>
+      <c r="K41">
+        <v>23.636160000000348</v>
+      </c>
+      <c r="L41">
+        <v>23.642550000000348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>0.21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.05</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>0.11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8DC9C-AC36-4AD0-BBB8-C182D586ED50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875AC56-EA1D-49D6-A33D-0E3B32515647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Parameter</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Vp</t>
-  </si>
-  <si>
-    <t>End</t>
   </si>
   <si>
     <t>Ks</t>
@@ -1035,24 +1032,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>17.524999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1062,7 @@
         <v>1.0122282608695653E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>3.6627415458937205</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>1.2211422472836464</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>69.608333333333306</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1328,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1342,7 +1336,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>0.5</v>
@@ -1464,7 +1458,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1.3</v>
@@ -1480,7 +1474,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -1488,51 +1482,51 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0.37</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0.21</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0.05</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0.11</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0.7</v>
@@ -1540,7 +1534,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>0.9</v>
@@ -1548,7 +1542,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
